--- a/current status.xlsx
+++ b/current status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Содержание</t>
   </si>
@@ -45,9 +45,6 @@
     <t>подпись пылькина</t>
   </si>
   <si>
-    <t>переделать согласно методе цветкова</t>
-  </si>
-  <si>
     <t>добавить ссылки на литературу</t>
   </si>
   <si>
@@ -63,10 +60,10 @@
     <t>Done</t>
   </si>
   <si>
-    <t>авто + скрины + отчет с дженкинса + кейсы на анализ</t>
-  </si>
-  <si>
     <t>Программная документация</t>
+  </si>
+  <si>
+    <t>авто + скрины + отчет с дженкинса + кейсы на анализ азполнить расчетными данными</t>
   </si>
 </sst>
 </file>
@@ -474,7 +471,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
@@ -504,22 +501,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,12 +539,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -567,16 +562,16 @@
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Содержание</t>
   </si>
@@ -64,6 +64,27 @@
   </si>
   <si>
     <t>авто + скрины + отчет с дженкинса + кейсы на анализ азполнить расчетными данными</t>
+  </si>
+  <si>
+    <t>Обоснование темы</t>
+  </si>
+  <si>
+    <t>Анализ предметной области</t>
+  </si>
+  <si>
+    <t>Разработка базы данных</t>
+  </si>
+  <si>
+    <t>Разработка и описание алгоритмов</t>
+  </si>
+  <si>
+    <t>Программная реализация алгоритмов</t>
+  </si>
+  <si>
+    <t>Разработка пользовательскоо интерфейса</t>
+  </si>
+  <si>
+    <t>только начала</t>
   </si>
 </sst>
 </file>
@@ -468,15 +489,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
@@ -518,73 +539,89 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -626,7 +663,18 @@
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/current status.xlsx
+++ b/current status.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Содержание</t>
   </si>
@@ -85,12 +85,15 @@
   </si>
   <si>
     <t>только начала</t>
+  </si>
+  <si>
+    <t>На сдачу</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +152,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,6 +182,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -180,7 +200,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -206,12 +226,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,7 +505,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +526,7 @@
     <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -512,8 +536,11 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -521,15 +548,17 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -537,8 +566,9 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -546,43 +576,49 @@
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -590,8 +626,9 @@
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,15 +636,17 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -615,15 +654,17 @@
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Программная документация</t>
   </si>
   <si>
-    <t>авто + скрины + отчет с дженкинса + кейсы на анализ азполнить расчетными данными</t>
-  </si>
-  <si>
     <t>Обоснование темы</t>
   </si>
   <si>
@@ -88,12 +85,16 @@
   </si>
   <si>
     <t>На сдачу</t>
+  </si>
+  <si>
+    <t>авто + скрины + отчет с дженкинса + 
+добавить столбцы с оценками</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,10 +233,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -505,7 +506,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,7 +517,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -570,17 +571,17 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="2"/>
@@ -588,7 +589,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -596,7 +597,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
@@ -604,7 +605,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
@@ -612,7 +613,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
@@ -624,17 +625,17 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D12" s="10"/>
     </row>

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Содержание</t>
   </si>
@@ -87,8 +87,10 @@
     <t>На сдачу</t>
   </si>
   <si>
-    <t>авто + скрины + отчет с дженкинса + 
-добавить столбцы с оценками</t>
+    <t>авто</t>
+  </si>
+  <si>
+    <t>скрины</t>
   </si>
 </sst>
 </file>
@@ -517,7 +519,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,11 +627,11 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Содержание</t>
   </si>
@@ -81,22 +81,31 @@
     <t>Разработка пользовательскоо интерфейса</t>
   </si>
   <si>
-    <t>только начала</t>
-  </si>
-  <si>
     <t>На сдачу</t>
   </si>
   <si>
     <t>авто</t>
   </si>
   <si>
-    <t>скрины</t>
+    <t>Отправить</t>
+  </si>
+  <si>
+    <t>только начала + изменить согласно оглавлению</t>
+  </si>
+  <si>
+    <t>изменить согласно оглавлению</t>
+  </si>
+  <si>
+    <t>Введение, содержание, документация, тестирование</t>
+  </si>
+  <si>
+    <t>редактирование скринов + скрин диаграммы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,10 +244,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,7 +517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -519,7 +528,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -559,7 +568,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="10"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -569,33 +578,37 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -621,25 +634,25 @@
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -677,10 +690,14 @@
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Содержание</t>
   </si>
@@ -90,16 +90,28 @@
     <t>Отправить</t>
   </si>
   <si>
-    <t>только начала + изменить согласно оглавлению</t>
-  </si>
-  <si>
     <t>изменить согласно оглавлению</t>
   </si>
   <si>
     <t>Введение, содержание, документация, тестирование</t>
   </si>
   <si>
-    <t>редактирование скринов + скрин диаграммы</t>
+    <t>редактирование библиотек</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>обоснование темы, документация</t>
+  </si>
+  <si>
+    <t>ПО</t>
+  </si>
+  <si>
+    <t>не забыть куки, фильтры, сессии, анализ данных</t>
+  </si>
+  <si>
+    <t>изменить согласно оглавлению, добавить таблицу</t>
   </si>
 </sst>
 </file>
@@ -212,7 +224,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -241,7 +253,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
@@ -517,7 +537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,7 +548,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +580,9 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -568,7 +590,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -578,17 +600,17 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -596,27 +618,29 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -624,7 +648,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -632,17 +656,17 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -652,7 +676,7 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -660,7 +684,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -670,7 +694,7 @@
       <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -678,58 +702,63 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Содержание</t>
   </si>
@@ -96,28 +96,25 @@
     <t>Введение, содержание, документация, тестирование</t>
   </si>
   <si>
-    <t>редактирование библиотек</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
     <t>обоснование темы, документация</t>
   </si>
   <si>
-    <t>ПО</t>
-  </si>
-  <si>
     <t>не забыть куки, фильтры, сессии, анализ данных</t>
   </si>
   <si>
     <t>изменить согласно оглавлению, добавить таблицу</t>
+  </si>
+  <si>
+    <t>изменено</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +221,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -262,12 +259,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
-    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,7 +537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,7 +548,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,9 +608,9 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -628,7 +628,7 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="12"/>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -722,15 +722,15 @@
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>26</v>
+      <c r="D18" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Содержание</t>
   </si>
@@ -84,31 +84,34 @@
     <t>На сдачу</t>
   </si>
   <si>
-    <t>авто</t>
-  </si>
-  <si>
     <t>Отправить</t>
   </si>
   <si>
-    <t>изменить согласно оглавлению</t>
-  </si>
-  <si>
     <t>Введение, содержание, документация, тестирование</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>обоснование темы, документация</t>
-  </si>
-  <si>
     <t>не забыть куки, фильтры, сессии, анализ данных</t>
   </si>
   <si>
-    <t>изменить согласно оглавлению, добавить таблицу</t>
-  </si>
-  <si>
-    <t>изменено</t>
+    <t>добавить ссылки на литературу
+проверить пунктуацию, нумерацию</t>
+  </si>
+  <si>
+    <t>изменено
+проверить пунктуацию, обозначить окончание таблиц</t>
+  </si>
+  <si>
+    <t>авто
+проверить пунктуацию, обозначить окончание таблиц</t>
+  </si>
+  <si>
+    <t>обоснование темы</t>
+  </si>
+  <si>
+    <t>добавить таблицу в прогу</t>
   </si>
 </sst>
 </file>
@@ -545,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +584,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -590,15 +593,17 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D4" s="10"/>
     </row>
@@ -617,18 +622,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="11"/>
     </row>
@@ -638,16 +641,18 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -658,23 +663,23 @@
       <c r="C10" s="2"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D12" s="10"/>
     </row>
@@ -716,52 +721,73 @@
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="13"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Содержание</t>
   </si>
@@ -100,10 +100,6 @@
 проверить пунктуацию, нумерацию</t>
   </si>
   <si>
-    <t>изменено
-проверить пунктуацию, обозначить окончание таблиц</t>
-  </si>
-  <si>
     <t>авто
 проверить пунктуацию, обозначить окончание таблиц</t>
   </si>
@@ -112,6 +108,12 @@
   </si>
   <si>
     <t>добавить таблицу в прогу</t>
+  </si>
+  <si>
+    <t>проверить пунктуацию, обозначить окончание таблиц</t>
+  </si>
+  <si>
+    <t>скрины</t>
   </si>
 </sst>
 </file>
@@ -551,7 +553,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,11 +631,11 @@
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -659,17 +661,19 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="10"/>
     </row>
@@ -679,7 +683,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="10"/>
     </row>
@@ -735,7 +739,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>23</v>

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Содержание</t>
   </si>
@@ -113,7 +113,10 @@
     <t>проверить пунктуацию, обозначить окончание таблиц</t>
   </si>
   <si>
-    <t>скрины</t>
+    <t>пользовательский интерфейс, анализ предметной области</t>
+  </si>
+  <si>
+    <t>скрин футера</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,11 +664,11 @@
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -745,10 +748,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Содержание</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>пользовательский интерфейс, анализ предметной области</t>
-  </si>
-  <si>
-    <t>скрин футера</t>
   </si>
 </sst>
 </file>
@@ -665,9 +662,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Содержание</t>
   </si>
@@ -45,9 +45,6 @@
     <t>подпись пылькина</t>
   </si>
   <si>
-    <t>добавить ссылки на литературу</t>
-  </si>
-  <si>
     <t>Список литературы</t>
   </si>
   <si>
@@ -96,24 +93,29 @@
     <t>не забыть куки, фильтры, сессии, анализ данных</t>
   </si>
   <si>
-    <t>добавить ссылки на литературу
-проверить пунктуацию, нумерацию</t>
-  </si>
-  <si>
-    <t>авто
-проверить пунктуацию, обозначить окончание таблиц</t>
-  </si>
-  <si>
     <t>обоснование темы</t>
   </si>
   <si>
     <t>добавить таблицу в прогу</t>
   </si>
   <si>
-    <t>проверить пунктуацию, обозначить окончание таблиц</t>
-  </si>
-  <si>
-    <t>пользовательский интерфейс, анализ предметной области</t>
+    <t>пользовательский интерфейс</t>
+  </si>
+  <si>
+    <t>анализ предметной области</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>все объединить
+добавить ссылки на литературу
+проверить пунктуацию
+проверить нумерацию
+обозначить окончание таблиц</t>
+  </si>
+  <si>
+    <t>авто</t>
   </si>
 </sst>
 </file>
@@ -226,7 +228,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -266,6 +268,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -553,7 +559,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,13 +574,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,94 +602,96 @@
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="D3" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="10"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="15">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -695,26 +703,31 @@
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -723,38 +736,42 @@
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Содержание</t>
   </si>
@@ -559,7 +559,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,9 +689,7 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Содержание</t>
   </si>
@@ -559,7 +559,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +621,9 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -669,7 +671,9 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Содержание</t>
   </si>
@@ -116,6 +116,30 @@
   </si>
   <si>
     <t>авто</t>
+  </si>
+  <si>
+    <t>НИР</t>
+  </si>
+  <si>
+    <t>Отчет по практике</t>
+  </si>
+  <si>
+    <t>Отзыв руководителя по практике</t>
+  </si>
+  <si>
+    <t>Отзыв руководителя по диплому</t>
+  </si>
+  <si>
+    <t>сдать отчет пылькину + оценка в зачетку</t>
+  </si>
+  <si>
+    <t>сдать руководителю + оценка в зачетку</t>
+  </si>
+  <si>
+    <t>пнуть</t>
+  </si>
+  <si>
+    <t>куда-то сюда пихать какие-то компетенции и аннотации</t>
   </si>
 </sst>
 </file>
@@ -187,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -221,6 +245,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -228,7 +314,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -272,6 +358,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -556,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,88 +835,139 @@
       </c>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="F19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="13"/>
     </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="13"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F19:H20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,11 +849,11 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20730" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Содержание</t>
   </si>
@@ -141,11 +141,14 @@
   <si>
     <t>куда-то сюда пихать какие-то компетенции и аннотации</t>
   </si>
+  <si>
+    <t>корректировки</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -379,10 +382,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -395,6 +398,1629 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="144"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="44"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> average lag by topics</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$14:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="139487872"/>
+        <c:axId val="139596160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="139487872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139596160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="139596160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139487872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>519111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7753350" y="7696200"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04863</cdr:x>
+      <cdr:y>0.66096</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.1459</cdr:x>
+      <cdr:y>0.83408</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="20016125">
+          <a:off x="457200" y="3490914"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0618</cdr:x>
+      <cdr:y>0.67178</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.15907</cdr:x>
+      <cdr:y>0.84491</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="581025" y="3548064"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03003</cdr:x>
+      <cdr:y>0.60925</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.12729</cdr:x>
+      <cdr:y>0.67633</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19710256">
+          <a:off x="282304" y="3217849"/>
+          <a:ext cx="914400" cy="354248"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Java basics</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01013</cdr:x>
+      <cdr:y>0.6514</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21263</cdr:x>
+      <cdr:y>0.71847</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19710256">
+          <a:off x="95251" y="3440443"/>
+          <a:ext cx="1903749" cy="354248"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Object Oriented Programming</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.12091</cdr:x>
+      <cdr:y>0.61737</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.32341</cdr:x>
+      <cdr:y>0.68444</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19710256">
+          <a:off x="1136650" y="3260726"/>
+          <a:ext cx="1903749" cy="354248"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Errors and exceptions</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19993</cdr:x>
+      <cdr:y>0.62278</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.40243</cdr:x>
+      <cdr:y>0.68986</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19710256">
+          <a:off x="1879601" y="3289300"/>
+          <a:ext cx="1903749" cy="354248"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Input and output stream</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31442</cdr:x>
+      <cdr:y>0.5777</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51692</cdr:x>
+      <cdr:y>0.64477</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19710256">
+          <a:off x="2955927" y="3051173"/>
+          <a:ext cx="1903749" cy="354248"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Data processing</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.41979</cdr:x>
+      <cdr:y>0.54704</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62229</cdr:x>
+      <cdr:y>0.61411</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19710256">
+          <a:off x="3946525" y="2889249"/>
+          <a:ext cx="1903749" cy="354248"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Collections</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.41067</cdr:x>
+      <cdr:y>0.64623</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61317</cdr:x>
+      <cdr:y>0.7133</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19710256">
+          <a:off x="3860800" y="3413124"/>
+          <a:ext cx="1903749" cy="354248"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" smtClean="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Multithreaded programming</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" u="none">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.58595</cdr:x>
+      <cdr:y>0.54343</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78845</cdr:x>
+      <cdr:y>0.6105</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="13" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19710256">
+          <a:off x="5508626" y="2870200"/>
+          <a:ext cx="1903749" cy="354248"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" smtClean="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Java &amp; XML</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" u="none">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.53732</cdr:x>
+      <cdr:y>0.6823</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.73982</cdr:x>
+      <cdr:y>0.74937</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="14" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19710256">
+          <a:off x="5051427" y="3603622"/>
+          <a:ext cx="1903749" cy="354248"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SQL basics and relational databases</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" u="none">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.75008</cdr:x>
+      <cdr:y>0.53622</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95259</cdr:x>
+      <cdr:y>0.60329</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="15" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19710256">
+          <a:off x="7051677" y="2832099"/>
+          <a:ext cx="1903749" cy="354248"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JDBC 4.0</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" u="none">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7975</cdr:x>
+      <cdr:y>0.56868</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.63575</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="16" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19710256">
+          <a:off x="7506949" y="3003551"/>
+          <a:ext cx="1903749" cy="354248"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" smtClean="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Servlets basics</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" u="none">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.90511</cdr:x>
+      <cdr:y>0.59994</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99232</cdr:x>
+      <cdr:y>0.65205</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="17" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="19710256">
+          <a:off x="8509113" y="3168676"/>
+          <a:ext cx="819865" cy="275184"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JSP basics</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100" u="none">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,7 +2278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -660,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +2299,7 @@
     <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -687,7 +2313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -699,7 +2325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,17 +2335,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -729,17 +2355,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -749,7 +2373,7 @@
       </c>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -759,7 +2383,7 @@
       </c>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -768,8 +2392,44 @@
         <v>23</v>
       </c>
       <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -778,8 +2438,44 @@
       <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>-2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>-2</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>-2</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>-4</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <v>-2</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -788,8 +2484,44 @@
       <c r="D11" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -798,16 +2530,88 @@
         <v>30</v>
       </c>
       <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>-2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>-2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -816,8 +2620,56 @@
         <v>10</v>
       </c>
       <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f>AVERAGE(K9:K13)</f>
+        <v>1.6</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:V14" si="0">AVERAGE(L9:L13)</f>
+        <v>1.2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>-1.2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -825,7 +2677,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -970,5 +2822,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/current status.xlsx
+++ b/current status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Содержание</t>
   </si>
@@ -115,9 +115,6 @@
 обозначить окончание таблиц</t>
   </si>
   <si>
-    <t>авто</t>
-  </si>
-  <si>
     <t>НИР</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
   </si>
   <si>
     <t>куда-то сюда пихать какие-то компетенции и аннотации</t>
-  </si>
-  <si>
-    <t>корректировки</t>
   </si>
 </sst>
 </file>
@@ -504,11 +498,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139487872"/>
-        <c:axId val="139596160"/>
+        <c:axId val="63455616"/>
+        <c:axId val="63457152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139487872"/>
+        <c:axId val="63455616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,7 +511,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139596160"/>
+        <c:crossAx val="63457152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -525,7 +519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139596160"/>
+        <c:axId val="63457152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,7 +530,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139487872"/>
+        <c:crossAx val="63455616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2278,7 +2272,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2288,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,10 +2334,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2526,10 +2520,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="10"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="K12">
         <v>2</v>
       </c>
@@ -2689,46 +2683,46 @@
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="14"/>
       <c r="F19" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="14"/>
       <c r="F20" s="19"/>

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -102,9 +102,6 @@
     <t>пользовательский интерфейс</t>
   </si>
   <si>
-    <t>анализ предметной области</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>куда-то сюда пихать какие-то компетенции и аннотации</t>
+  </si>
+  <si>
+    <t>анализ предметной области, отчет по НИР, отчет по практике</t>
   </si>
 </sst>
 </file>
@@ -173,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,12 +198,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +305,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -342,9 +336,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,11 +489,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63455616"/>
-        <c:axId val="63457152"/>
+        <c:axId val="140132736"/>
+        <c:axId val="140134272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63455616"/>
+        <c:axId val="140132736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,7 +502,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63457152"/>
+        <c:crossAx val="140134272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -519,7 +510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63457152"/>
+        <c:axId val="140134272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +521,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63455616"/>
+        <c:crossAx val="140132736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2272,7 +2263,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2282,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2354,7 +2345,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -2365,7 +2356,7 @@
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2375,7 +2366,7 @@
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2385,7 +2376,7 @@
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="11"/>
       <c r="K9">
         <v>2</v>
       </c>
@@ -2567,7 +2558,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="K13">
         <v>2</v>
       </c>
@@ -2613,7 +2604,7 @@
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="K14">
         <f>AVERAGE(K9:K13)</f>
         <v>1.6</v>
@@ -2669,65 +2660,65 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="F19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="F19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+        <v>35</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -2742,7 +2733,7 @@
       <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2752,7 +2743,7 @@
       <c r="C23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2762,53 +2753,53 @@
       <c r="C24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="13"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="13"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="13"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="13"/>
+      <c r="D33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Содержание</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Отчет по практике</t>
   </si>
   <si>
-    <t>Отзыв руководителя по практике</t>
-  </si>
-  <si>
     <t>Отзыв руководителя по диплому</t>
   </si>
   <si>
@@ -137,6 +134,12 @@
   </si>
   <si>
     <t>анализ предметной области, отчет по НИР, отчет по практике</t>
+  </si>
+  <si>
+    <t>заключение, разработка бд, алгоритмы, программная реализация</t>
+  </si>
+  <si>
+    <t>полностью готовая пз</t>
   </si>
 </sst>
 </file>
@@ -173,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +204,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -267,37 +276,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -305,7 +283,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -347,6 +325,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -354,15 +335,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -489,11 +461,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="140132736"/>
-        <c:axId val="140134272"/>
+        <c:axId val="129638784"/>
+        <c:axId val="129640320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="140132736"/>
+        <c:axId val="129638784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -502,7 +474,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140134272"/>
+        <c:crossAx val="129640320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -510,7 +482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140134272"/>
+        <c:axId val="129640320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +493,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140132736"/>
+        <c:crossAx val="129638784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -551,7 +523,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -575,7 +547,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -2271,10 +2243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,31 +2324,31 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="15"/>
       <c r="K9">
         <v>2</v>
       </c>
@@ -2556,9 +2528,9 @@
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="15"/>
       <c r="K13">
         <v>2</v>
       </c>
@@ -2678,7 +2650,7 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -2688,50 +2660,47 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="F19" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="F19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="C21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>22</v>
@@ -2741,17 +2710,17 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>22</v>
@@ -2768,7 +2737,9 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2784,9 +2755,6 @@
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2798,12 +2766,9 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="12"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F19:H20"/>
+    <mergeCell ref="F19:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/current status.xlsx
+++ b/current status.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Содержание</t>
   </si>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,15 +168,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,18 +188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,13 +259,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -297,25 +278,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -324,9 +299,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -338,8 +310,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
@@ -461,11 +432,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="129638784"/>
-        <c:axId val="129640320"/>
+        <c:axId val="94585216"/>
+        <c:axId val="94586752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129638784"/>
+        <c:axId val="94585216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +445,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129640320"/>
+        <c:crossAx val="94586752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -482,7 +453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129640320"/>
+        <c:axId val="94586752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,7 +464,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129638784"/>
+        <c:crossAx val="94585216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2235,7 +2206,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2246,7 +2217,7 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2257,16 +2228,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2278,7 +2249,7 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2288,7 +2259,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2298,7 +2269,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2308,7 +2279,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2317,38 +2288,36 @@
         <v>14</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="15"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="4"/>
       <c r="K9">
         <v>2</v>
       </c>
@@ -2392,7 +2361,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K10">
@@ -2438,7 +2407,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K11">
@@ -2484,7 +2453,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K12">
@@ -2530,7 +2499,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="9"/>
       <c r="K13">
         <v>2</v>
       </c>
@@ -2572,11 +2541,11 @@
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="4"/>
       <c r="K14">
         <f>AVERAGE(K9:K13)</f>
         <v>1.6</v>
@@ -2630,19 +2599,19 @@
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -2672,99 +2641,99 @@
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="F19" s="16" t="s">
+      <c r="D19" s="11"/>
+      <c r="F19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="12"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="12"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="12"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="12"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="12"/>
+      <c r="D32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
